--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\متون\New folder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576D2A86-1B95-4376-BD0A-3A9222EAAC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7156C694-5049-4314-AE5C-722AD23749CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8150BC26-0E28-4E7C-9180-7347C6A0A91C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>رمز ورود</t>
   </si>
@@ -160,6 +160,24 @@
   </si>
   <si>
     <t>fat</t>
+  </si>
+  <si>
+    <t>خانم شیبانی</t>
+  </si>
+  <si>
+    <t>معاون</t>
+  </si>
+  <si>
+    <t>she</t>
+  </si>
+  <si>
+    <t>taj</t>
+  </si>
+  <si>
+    <t>poy</t>
+  </si>
+  <si>
+    <t>arm</t>
   </si>
 </sst>
 </file>
@@ -511,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6835C426-B13E-4B1C-B639-216C7D32220E}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A20" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,9 +888,6 @@
       <c r="B32" t="s">
         <v>3</v>
       </c>
-      <c r="C32">
-        <v>123</v>
-      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -881,8 +896,8 @@
       <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C33">
-        <v>123</v>
+      <c r="C33" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -892,8 +907,8 @@
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34">
-        <v>123</v>
+      <c r="C34" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -914,8 +929,19 @@
       <c r="B36" t="s">
         <v>5</v>
       </c>
-      <c r="C36">
-        <v>123</v>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
